--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,53</t>
+          <t>7,1; 10,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,5</t>
+          <t>9,13; 13,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,21</t>
+          <t>9,05; 13,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,8; 21,89</t>
+          <t>15,86; 21,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,7</t>
+          <t>15,34; 19,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 27,22</t>
+          <t>22,12; 27,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 28,52</t>
+          <t>22,86; 28,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,79</t>
+          <t>32,34; 38,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 14,98</t>
+          <t>12,21; 15,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,58</t>
+          <t>17,36; 20,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 21,13</t>
+          <t>17,36; 21,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,5; 30,9</t>
+          <t>26,6; 30,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,87</t>
+          <t>2,27; 4,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,87</t>
+          <t>3,96; 5,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,28</t>
+          <t>4,21; 6,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,58</t>
+          <t>6,25; 8,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,92</t>
+          <t>6,34; 9,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 12,87</t>
+          <t>9,7; 12,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,01</t>
+          <t>10,85; 13,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,15</t>
+          <t>11,76; 15,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,05</t>
+          <t>4,32; 5,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,71</t>
+          <t>6,9; 8,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,69</t>
+          <t>7,92; 9,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 11,63</t>
+          <t>9,35; 11,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,53</t>
+          <t>2,4; 5,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,67</t>
+          <t>2,77; 7,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,98</t>
+          <t>2,54; 6,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,1</t>
+          <t>4,49; 8,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,48</t>
+          <t>4,23; 8,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,83</t>
+          <t>4,11; 8,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,54</t>
+          <t>4,11; 8,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,91</t>
+          <t>7,18; 10,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,36</t>
+          <t>3,7; 6,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,22</t>
+          <t>4,0; 7,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,7</t>
+          <t>3,64; 6,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 8,92</t>
+          <t>6,42; 9,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,18; 5,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 7,6</t>
+          <t>5,69; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,1</t>
+          <t>5,41; 7,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 9,9</t>
+          <t>7,88; 9,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,18; 12,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,85</t>
+          <t>14,37; 16,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,44</t>
+          <t>13,9; 16,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 18,59</t>
+          <t>15,75; 18,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,41; 8,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,03</t>
+          <t>10,41; 12,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 11,6</t>
+          <t>10,09; 11,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,2</t>
+          <t>12,54; 14,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,6</t>
+          <t>7,25; 10,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,37</t>
+          <t>9,32; 13,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,48</t>
+          <t>8,93; 13,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,37</t>
+          <t>15,39; 19,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,12; 27,18</t>
+          <t>22,48; 27,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,86; 28,59</t>
+          <t>22,91; 28,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 15,08</t>
+          <t>12,28; 15,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 20,7</t>
+          <t>17,42; 20,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 21,56</t>
+          <t>17,39; 21,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,0</t>
+          <t>2,17; 3,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,96</t>
+          <t>3,8; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,2</t>
+          <t>4,2; 6,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,11</t>
+          <t>6,28; 9,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 12,82</t>
+          <t>9,64; 12,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 13,97</t>
+          <t>10,73; 13,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 5,92</t>
+          <t>4,46; 5,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 8,72</t>
+          <t>6,96; 8,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 9,65</t>
+          <t>7,83; 9,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,66</t>
+          <t>2,5; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,71</t>
+          <t>2,71; 7,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,15</t>
+          <t>2,37; 5,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,52</t>
+          <t>4,3; 8,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,83</t>
+          <t>3,92; 8,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,5</t>
+          <t>4,1; 8,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,36</t>
+          <t>3,74; 6,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,15</t>
+          <t>3,93; 7,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,48</t>
+          <t>3,71; 6,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,71</t>
+          <t>4,14; 5,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 7,53</t>
+          <t>5,76; 7,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,13</t>
+          <t>5,49; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 12,29</t>
+          <t>10,09; 12,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 16,96</t>
+          <t>14,38; 16,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 16,47</t>
+          <t>13,98; 16,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,76</t>
+          <t>7,39; 8,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 12,0</t>
+          <t>10,45; 12,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 11,65</t>
+          <t>10,08; 11,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 10,68</t>
+          <t>7,14; 10,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,58</t>
+          <t>9,1; 13,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,43</t>
+          <t>9,01; 13,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 21,79</t>
+          <t>15,8; 21,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 19,62</t>
+          <t>15,34; 19,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,05</t>
+          <t>22,55; 27,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,56</t>
+          <t>22,68; 28,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,34; 38,0</t>
+          <t>32,34; 37,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 15,08</t>
+          <t>12,11; 14,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 20,64</t>
+          <t>17,26; 20,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 21,1</t>
+          <t>17,42; 21,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,6; 30,77</t>
+          <t>26,5; 30,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,89</t>
+          <t>2,15; 3,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,77</t>
+          <t>3,88; 5,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,28</t>
+          <t>4,24; 6,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 8,68</t>
+          <t>6,31; 8,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,02</t>
+          <t>6,26; 8,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 12,66</t>
+          <t>9,72; 12,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,94</t>
+          <t>11,05; 14,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,24</t>
+          <t>11,23; 15,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,98</t>
+          <t>4,47; 6,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 8,68</t>
+          <t>6,83; 8,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,63</t>
+          <t>7,88; 9,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 11,55</t>
+          <t>9,5; 11,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,75</t>
+          <t>2,42; 5,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,84</t>
+          <t>2,71; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,85</t>
+          <t>2,41; 5,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,19</t>
+          <t>4,37; 8,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,75</t>
+          <t>4,22; 8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,56</t>
+          <t>3,91; 8,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,82</t>
+          <t>4,18; 8,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,96</t>
+          <t>7,24; 10,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,34</t>
+          <t>3,6; 6,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,32</t>
+          <t>4,03; 7,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,63</t>
+          <t>3,63; 6,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,03</t>
+          <t>6,43; 8,92</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,58</t>
+          <t>5,72; 7,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,18</t>
+          <t>5,41; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,9</t>
+          <t>7,97; 9,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,25</t>
+          <t>10,14; 12,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,96</t>
+          <t>14,27; 16,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 16,46</t>
+          <t>13,89; 16,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,68</t>
+          <t>15,55; 18,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,7</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 12,03</t>
+          <t>10,39; 12,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 11,62</t>
+          <t>10,09; 11,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 14,29</t>
+          <t>12,43; 14,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>27,94%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,8; 21,89</t>
+          <t>15,49; 21,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,79</t>
+          <t>31,94; 37,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,5; 30,9</t>
+          <t>25,91; 30,13</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,58</t>
+          <t>4,58; 7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,15</t>
+          <t>8,62; 14,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 11,63</t>
+          <t>7,6; 10,81</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,1</t>
+          <t>4,39; 8,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,91</t>
+          <t>7,28; 10,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 8,92</t>
+          <t>6,4; 8,86</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 9,9</t>
+          <t>6,38; 9,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 18,59</t>
+          <t>13,0; 17,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,2</t>
+          <t>10,74; 13,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,53</t>
+          <t>7,19; 10,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,5</t>
+          <t>9,24; 13,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,21</t>
+          <t>8,97; 13,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,47</t>
+          <t>15,35; 21,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,7</t>
+          <t>15,46; 19,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 27,22</t>
+          <t>22,48; 27,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 28,52</t>
+          <t>22,9; 28,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,94; 37,21</t>
+          <t>32,06; 37,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 14,98</t>
+          <t>12,14; 14,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,58</t>
+          <t>17,41; 20,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 21,13</t>
+          <t>17,33; 21,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,91; 30,13</t>
+          <t>25,95; 30,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,87</t>
+          <t>2,21; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,87</t>
+          <t>3,83; 5,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,28</t>
+          <t>4,22; 6,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,86</t>
+          <t>4,62; 7,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,92</t>
+          <t>6,19; 8,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 12,87</t>
+          <t>9,71; 12,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,01</t>
+          <t>10,99; 13,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,56</t>
+          <t>8,99; 14,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,05</t>
+          <t>4,44; 5,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,71</t>
+          <t>6,94; 8,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,69</t>
+          <t>7,84; 9,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,81</t>
+          <t>7,5; 10,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,53</t>
+          <t>2,41; 5,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,67</t>
+          <t>2,8; 7,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,98</t>
+          <t>2,31; 6,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,09</t>
+          <t>4,47; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,48</t>
+          <t>4,27; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,83</t>
+          <t>3,92; 8,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,54</t>
+          <t>4,2; 8,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,85</t>
+          <t>7,3; 10,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,36</t>
+          <t>3,7; 6,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,22</t>
+          <t>4,01; 7,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,7</t>
+          <t>3,72; 6,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,86</t>
+          <t>6,32; 8,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,21; 5,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 7,6</t>
+          <t>5,72; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,1</t>
+          <t>5,47; 7,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,22</t>
+          <t>6,45; 9,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,1; 12,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,85</t>
+          <t>14,35; 16,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,44</t>
+          <t>13,97; 16,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,89</t>
+          <t>13,19; 18,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,45; 8,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,03</t>
+          <t>10,31; 11,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 11,6</t>
+          <t>10,02; 11,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 13,52</t>
+          <t>10,74; 13,48</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>90131</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108661</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83233</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>93817</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>228483</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>330571</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>254832</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>261106</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>318613</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>439231</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>338065</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>354923</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>74219; 108345</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>90038; 132616</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67629; 100478</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79059; 110993</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>203297; 260261</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>300747; 364330</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>227825; 281746</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>242213; 283921</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>284794; 349734</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>402579; 478259</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>303078; 372499</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>329725; 383153</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49823</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94650</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106991</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>149457</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>119061</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>195542</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>247847</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>281750</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>168884</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>290192</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>354837</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>431208</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37403; 65347</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>75237; 115918</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87633; 128864</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>105719; 179875</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>98214; 139764</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>170620; 224291</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>218557; 276760</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>201134; 328586</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>145821; 194977</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>258249; 328004</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>318539; 392746</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>339690; 487722</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21071</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23339</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21421</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39327</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29264</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27604</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33248</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>58597</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50335</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50944</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54669</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97924</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13296; 31250</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13491; 37544</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12658; 33305</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28887; 52190</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20322; 41156</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17998; 40429</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23080; 47510</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48242; 70881</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38006; 66148</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37675; 70679</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40722; 72339</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82649; 114134</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>226650</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>211645</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>282602</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>376807</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>553717</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>535926</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>601452</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>537832</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>780367</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>747571</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>884054</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>137978; 188322</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>195611; 258811</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>184826; 241585</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>222511; 321920</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>341295; 413853</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>509919; 601067</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>493571; 580425</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>481978; 662028</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>495709; 588787</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>719190; 833413</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>692256; 800989</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>763101; 957660</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>